--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/docs/blog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73800BFA-F406-DB4A-A6F1-DC014E31592E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAF21D3-769E-4648-A35E-814D6D7F1CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23440" yWindow="3860" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,6 +667,56 @@
         <v>45</v>
       </c>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B5">
+        <v>21.54</v>
+      </c>
+      <c r="C5">
+        <v>4.3</v>
+      </c>
+      <c r="D5">
+        <v>3.6</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>4.2</v>
+      </c>
+      <c r="G5">
+        <v>5.2</v>
+      </c>
+      <c r="H5">
+        <v>1.8</v>
+      </c>
+      <c r="I5">
+        <v>1.96</v>
+      </c>
+      <c r="J5">
+        <v>69.95</v>
+      </c>
+      <c r="K5">
+        <v>9.75</v>
+      </c>
+      <c r="L5">
+        <v>399.95</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>52.5</v>
+      </c>
+      <c r="O5">
+        <v>64.95</v>
+      </c>
+      <c r="P5">
+        <v>45.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/docs/blog/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAF21D3-769E-4648-A35E-814D6D7F1CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361CCB0-656A-7740-B3D0-50810C4C9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23440" yWindow="3860" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PRICES" sheetId="1" r:id="rId1"/>
+    <sheet name="NOTES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Banana</t>
   </si>
@@ -84,16 +85,69 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Bananas (local product in Turkey, Coles default in Australia)</t>
+  </si>
+  <si>
+    <t>Brown Onions</t>
+  </si>
+  <si>
+    <t>Beef Mince (Migros Dana in Turkey, Coles Regular mince in Australia)</t>
+  </si>
+  <si>
+    <t>Milk (Full cream. Pinar in Turkey, Norco 2-L bottle in Australia)</t>
+  </si>
+  <si>
+    <t>Rice (Migros Baldo pirinc in Turkey, Coles long grain in Australia)</t>
+  </si>
+  <si>
+    <t>Petrol (Petrol Ofisi for Turkey, RACQ Fair Fuel Finder Sunnybank prices)</t>
+  </si>
+  <si>
+    <t>Migros Online</t>
+  </si>
+  <si>
+    <t>Coles Online</t>
+  </si>
+  <si>
+    <t>Eggs (Migros 15-pack in Turkey, Coles free range 12-pack 600g in Australia)</t>
+  </si>
+  <si>
+    <t>Petrol Ofisi</t>
+  </si>
+  <si>
+    <t>RACQ Fair Fuel Finder</t>
+  </si>
+  <si>
+    <t>Istanbul(Avrupa)</t>
+  </si>
+  <si>
+    <t>Sunnybank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF363737"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,14 +170,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,7 +777,148 @@
         <v>45.2</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B6">
+        <v>22.35</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3.6</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>4.2</v>
+      </c>
+      <c r="G6">
+        <v>5.2</v>
+      </c>
+      <c r="H6">
+        <v>1.8</v>
+      </c>
+      <c r="I6">
+        <v>1.72</v>
+      </c>
+      <c r="J6">
+        <v>69.95</v>
+      </c>
+      <c r="K6">
+        <v>11.95</v>
+      </c>
+      <c r="L6">
+        <v>419.95</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>52.5</v>
+      </c>
+      <c r="O6">
+        <v>64.95</v>
+      </c>
+      <c r="P6">
+        <v>44.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1F740B-A0DC-2448-A77C-B52463C89D01}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{71BA047D-F849-444E-BA12-9B67BAB83554}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{74A4BD70-542A-6548-92CB-81E2E01EAAFE}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{0660E9B8-E0F1-6345-8F43-966613D1495F}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{D88E4E35-6520-A345-B9CA-E86CA2B734AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361CCB0-656A-7740-B3D0-50810C4C9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A605CF-DA42-3C4D-985F-1296B7D939A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23440" yWindow="3860" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Coles Online</t>
   </si>
   <si>
-    <t>Eggs (Migros 15-pack in Turkey, Coles free range 12-pack 600g in Australia)</t>
-  </si>
-  <si>
     <t>Petrol Ofisi</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Sunnybank</t>
+  </si>
+  <si>
+    <t>Eggs (Migros orta boy 15-pack in Turkey, Coles free range 12-pack 600g in Australia)</t>
   </si>
 </sst>
 </file>
@@ -174,11 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -516,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,6 +826,106 @@
         <v>44.54</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B7">
+        <v>23.05</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>4.2</v>
+      </c>
+      <c r="G7">
+        <v>5.7</v>
+      </c>
+      <c r="H7">
+        <v>1.8</v>
+      </c>
+      <c r="I7">
+        <v>1.92</v>
+      </c>
+      <c r="J7">
+        <v>69.95</v>
+      </c>
+      <c r="K7">
+        <v>14.9</v>
+      </c>
+      <c r="L7">
+        <v>399.95</v>
+      </c>
+      <c r="M7">
+        <v>45</v>
+      </c>
+      <c r="N7">
+        <v>93.95</v>
+      </c>
+      <c r="O7">
+        <v>67.5</v>
+      </c>
+      <c r="P7">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B8">
+        <v>22.68</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>4.2</v>
+      </c>
+      <c r="G8">
+        <v>5.7</v>
+      </c>
+      <c r="H8">
+        <v>1.8</v>
+      </c>
+      <c r="I8">
+        <v>1.66</v>
+      </c>
+      <c r="J8">
+        <v>69.95</v>
+      </c>
+      <c r="K8">
+        <v>9.9</v>
+      </c>
+      <c r="L8">
+        <v>399.95</v>
+      </c>
+      <c r="M8">
+        <v>45</v>
+      </c>
+      <c r="N8">
+        <v>72.5</v>
+      </c>
+      <c r="O8">
+        <v>67.5</v>
+      </c>
+      <c r="P8">
+        <v>41.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -837,7 +936,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,17 +945,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -880,7 +976,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -893,23 +989,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A605CF-DA42-3C4D-985F-1296B7D939A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CFCC2F-D173-6F4A-9B3D-C11852C113D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23440" yWindow="3860" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
+    <workbookView xWindow="19760" yWindow="4260" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="1" r:id="rId1"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,6 +924,206 @@
       </c>
       <c r="P8">
         <v>41.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B9">
+        <v>23.59</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3.6</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>4.2</v>
+      </c>
+      <c r="G9">
+        <v>5.7</v>
+      </c>
+      <c r="H9">
+        <v>1.8</v>
+      </c>
+      <c r="I9">
+        <v>1.59</v>
+      </c>
+      <c r="J9">
+        <v>54.95</v>
+      </c>
+      <c r="K9">
+        <v>12.5</v>
+      </c>
+      <c r="L9">
+        <v>389.95</v>
+      </c>
+      <c r="M9">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>69.95</v>
+      </c>
+      <c r="O9">
+        <v>67.5</v>
+      </c>
+      <c r="P9">
+        <v>42.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B10">
+        <v>23.15</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3.2</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>4.2</v>
+      </c>
+      <c r="G10">
+        <v>5.7</v>
+      </c>
+      <c r="H10">
+        <v>1.8</v>
+      </c>
+      <c r="I10">
+        <v>1.8</v>
+      </c>
+      <c r="J10">
+        <v>54.95</v>
+      </c>
+      <c r="K10">
+        <v>13.95</v>
+      </c>
+      <c r="L10">
+        <v>419.95</v>
+      </c>
+      <c r="M10">
+        <v>29.95</v>
+      </c>
+      <c r="N10">
+        <v>72.5</v>
+      </c>
+      <c r="O10">
+        <v>67.5</v>
+      </c>
+      <c r="P10">
+        <v>44.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B11">
+        <v>22.63</v>
+      </c>
+      <c r="C11">
+        <v>4.5</v>
+      </c>
+      <c r="D11">
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>3.95</v>
+      </c>
+      <c r="G11">
+        <v>5.7</v>
+      </c>
+      <c r="H11">
+        <v>1.8</v>
+      </c>
+      <c r="I11">
+        <v>1.82</v>
+      </c>
+      <c r="J11">
+        <v>99.95</v>
+      </c>
+      <c r="K11">
+        <v>15.95</v>
+      </c>
+      <c r="L11">
+        <v>409.95</v>
+      </c>
+      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>59.95</v>
+      </c>
+      <c r="O11">
+        <v>67.5</v>
+      </c>
+      <c r="P11">
+        <v>42.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B12">
+        <v>22.47</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>3.95</v>
+      </c>
+      <c r="G12">
+        <v>5.7</v>
+      </c>
+      <c r="H12">
+        <v>1.8</v>
+      </c>
+      <c r="I12">
+        <v>1.67</v>
+      </c>
+      <c r="J12">
+        <v>44.95</v>
+      </c>
+      <c r="K12">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L12">
+        <v>409.95</v>
+      </c>
+      <c r="M12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <v>67.5</v>
+      </c>
+      <c r="O12">
+        <v>67.5</v>
+      </c>
+      <c r="P12">
+        <v>42.33</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CFCC2F-D173-6F4A-9B3D-C11852C113D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016FE60-DA06-F043-9BA3-23519A1418C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="4260" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
+    <workbookView xWindow="24140" yWindow="4480" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="1" r:id="rId1"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,6 +1124,56 @@
       </c>
       <c r="P12">
         <v>42.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B13">
+        <v>22.2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>4.2</v>
+      </c>
+      <c r="G13">
+        <v>5.7</v>
+      </c>
+      <c r="H13">
+        <v>1.8</v>
+      </c>
+      <c r="I13">
+        <v>1.64</v>
+      </c>
+      <c r="J13">
+        <v>54.95</v>
+      </c>
+      <c r="K13">
+        <v>23.95</v>
+      </c>
+      <c r="L13">
+        <v>419.95</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>104.95</v>
+      </c>
+      <c r="O13">
+        <v>67.5</v>
+      </c>
+      <c r="P13">
+        <v>42.12</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016FE60-DA06-F043-9BA3-23519A1418C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79E0F13-820A-9F43-B0F4-2F0434BE3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24140" yWindow="4480" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,6 +1174,156 @@
       </c>
       <c r="P13">
         <v>42.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B14">
+        <v>21.93</v>
+      </c>
+      <c r="C14">
+        <v>5.33</v>
+      </c>
+      <c r="D14">
+        <v>3.6</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>4.2</v>
+      </c>
+      <c r="G14">
+        <v>5.7</v>
+      </c>
+      <c r="H14">
+        <v>1.8</v>
+      </c>
+      <c r="I14">
+        <v>1.94</v>
+      </c>
+      <c r="J14">
+        <v>44.95</v>
+      </c>
+      <c r="K14">
+        <v>23.95</v>
+      </c>
+      <c r="L14">
+        <v>449.95</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <v>109.95</v>
+      </c>
+      <c r="O14">
+        <v>67.5</v>
+      </c>
+      <c r="P14">
+        <v>43.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B15">
+        <v>21.99</v>
+      </c>
+      <c r="C15">
+        <v>5.33</v>
+      </c>
+      <c r="D15">
+        <v>2.9</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>4.2</v>
+      </c>
+      <c r="G15">
+        <v>5.7</v>
+      </c>
+      <c r="H15">
+        <v>1.8</v>
+      </c>
+      <c r="I15">
+        <v>1.95</v>
+      </c>
+      <c r="J15">
+        <v>59.95</v>
+      </c>
+      <c r="K15">
+        <v>21.95</v>
+      </c>
+      <c r="L15">
+        <v>470</v>
+      </c>
+      <c r="M15">
+        <v>124.95</v>
+      </c>
+      <c r="N15">
+        <v>124</v>
+      </c>
+      <c r="O15">
+        <v>67.5</v>
+      </c>
+      <c r="P15">
+        <v>44.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B16">
+        <v>22.06</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3.6</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>4.2</v>
+      </c>
+      <c r="G16">
+        <v>5.7</v>
+      </c>
+      <c r="H16">
+        <v>1.8</v>
+      </c>
+      <c r="I16">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="J16">
+        <v>64.95</v>
+      </c>
+      <c r="K16">
+        <v>23.95</v>
+      </c>
+      <c r="L16">
+        <v>449.95</v>
+      </c>
+      <c r="M16">
+        <v>45</v>
+      </c>
+      <c r="N16">
+        <v>104.95</v>
+      </c>
+      <c r="O16">
+        <v>67.5</v>
+      </c>
+      <c r="P16">
+        <v>45.32</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79E0F13-820A-9F43-B0F4-2F0434BE3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB900A-5E3F-A24B-9361-693895084A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24140" yWindow="4480" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Bananas (local product in Turkey, Coles default in Australia)</t>
   </si>
   <si>
-    <t>Brown Onions</t>
-  </si>
-  <si>
     <t>Beef Mince (Migros Dana in Turkey, Coles Regular mince in Australia)</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Eggs (Migros orta boy 15-pack in Turkey, Coles free range 12-pack 600g in Australia)</t>
+  </si>
+  <si>
+    <t>Brown Onions (Loose)</t>
   </si>
 </sst>
 </file>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1324,156 @@
       </c>
       <c r="P16">
         <v>45.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B17">
+        <v>22.09</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17">
+        <v>3.6</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>4.2</v>
+      </c>
+      <c r="G17">
+        <v>5.7</v>
+      </c>
+      <c r="H17">
+        <v>1.8</v>
+      </c>
+      <c r="I17">
+        <v>1.659</v>
+      </c>
+      <c r="J17">
+        <v>75.95</v>
+      </c>
+      <c r="K17">
+        <v>14.95</v>
+      </c>
+      <c r="L17">
+        <v>499.95</v>
+      </c>
+      <c r="M17">
+        <v>49.95</v>
+      </c>
+      <c r="N17">
+        <v>109.95</v>
+      </c>
+      <c r="O17">
+        <v>67.5</v>
+      </c>
+      <c r="P17">
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B18">
+        <v>23.02</v>
+      </c>
+      <c r="C18">
+        <v>4.5</v>
+      </c>
+      <c r="D18">
+        <v>3.9</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>4.2</v>
+      </c>
+      <c r="G18">
+        <v>5.7</v>
+      </c>
+      <c r="H18">
+        <v>1.8</v>
+      </c>
+      <c r="I18">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="J18">
+        <v>75.95</v>
+      </c>
+      <c r="K18">
+        <v>16.95</v>
+      </c>
+      <c r="L18">
+        <v>469.95</v>
+      </c>
+      <c r="M18">
+        <v>49.95</v>
+      </c>
+      <c r="N18">
+        <v>124.95</v>
+      </c>
+      <c r="O18">
+        <v>71.95</v>
+      </c>
+      <c r="P18">
+        <v>46.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B19">
+        <v>22.65</v>
+      </c>
+      <c r="C19">
+        <v>4.5</v>
+      </c>
+      <c r="D19">
+        <v>2.5</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>4.2</v>
+      </c>
+      <c r="G19">
+        <v>5.7</v>
+      </c>
+      <c r="H19">
+        <v>1.8</v>
+      </c>
+      <c r="I19">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="J19">
+        <v>87.95</v>
+      </c>
+      <c r="K19">
+        <v>18.95</v>
+      </c>
+      <c r="L19">
+        <v>579.95000000000005</v>
+      </c>
+      <c r="M19">
+        <v>49.95</v>
+      </c>
+      <c r="N19">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="O19">
+        <v>71.95</v>
+      </c>
+      <c r="P19">
+        <v>46.43</v>
       </c>
     </row>
   </sheetData>
@@ -1346,12 +1496,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1361,48 +1511,48 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB900A-5E3F-A24B-9361-693895084A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D119AFE7-4C57-A84A-8EFE-7C1089872E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24140" yWindow="4480" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,6 +1474,56 @@
       </c>
       <c r="P19">
         <v>46.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B20">
+        <v>23.28</v>
+      </c>
+      <c r="C20">
+        <v>4.5</v>
+      </c>
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>4.2</v>
+      </c>
+      <c r="G20">
+        <v>5.7</v>
+      </c>
+      <c r="H20">
+        <v>1.8</v>
+      </c>
+      <c r="I20">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="J20">
+        <v>89.95</v>
+      </c>
+      <c r="K20">
+        <v>29.9</v>
+      </c>
+      <c r="L20">
+        <v>489.9</v>
+      </c>
+      <c r="M20">
+        <v>49.95</v>
+      </c>
+      <c r="N20">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="O20">
+        <v>71.95</v>
+      </c>
+      <c r="P20">
+        <v>45.23</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D119AFE7-4C57-A84A-8EFE-7C1089872E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69B9D6-2133-F24B-845C-EA8767CBBEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="4480" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
+    <workbookView xWindow="20580" yWindow="4020" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="1" r:id="rId1"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,6 +1524,106 @@
       </c>
       <c r="P20">
         <v>45.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B21">
+        <v>23.88</v>
+      </c>
+      <c r="C21">
+        <v>4.5</v>
+      </c>
+      <c r="D21">
+        <v>2.5</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>4.2</v>
+      </c>
+      <c r="G21">
+        <v>5.7</v>
+      </c>
+      <c r="H21">
+        <v>1.8</v>
+      </c>
+      <c r="I21">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="J21">
+        <v>89.95</v>
+      </c>
+      <c r="K21">
+        <v>24.95</v>
+      </c>
+      <c r="L21">
+        <v>589.95000000000005</v>
+      </c>
+      <c r="M21">
+        <v>49.95</v>
+      </c>
+      <c r="N21">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="O21">
+        <v>71.95</v>
+      </c>
+      <c r="P21">
+        <v>46.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45759</v>
+      </c>
+      <c r="B22">
+        <v>23.92</v>
+      </c>
+      <c r="C22">
+        <v>4.5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>4.2</v>
+      </c>
+      <c r="G22">
+        <v>6.2</v>
+      </c>
+      <c r="H22">
+        <v>1.8</v>
+      </c>
+      <c r="I22">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="J22">
+        <v>95.95</v>
+      </c>
+      <c r="K22">
+        <v>16.95</v>
+      </c>
+      <c r="L22">
+        <v>589.95000000000005</v>
+      </c>
+      <c r="M22">
+        <v>49.95</v>
+      </c>
+      <c r="N22">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O22">
+        <v>74.95</v>
+      </c>
+      <c r="P22">
+        <v>44.18</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69B9D6-2133-F24B-845C-EA8767CBBEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA539C-A317-B243-BBD0-1386D951A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20580" yWindow="4020" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,6 +1624,56 @@
       </c>
       <c r="P22">
         <v>44.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45773</v>
+      </c>
+      <c r="B23">
+        <v>24.58</v>
+      </c>
+      <c r="C23">
+        <v>4.5</v>
+      </c>
+      <c r="D23">
+        <v>3.6</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>4.2</v>
+      </c>
+      <c r="G23">
+        <v>6.2</v>
+      </c>
+      <c r="H23">
+        <v>1.8</v>
+      </c>
+      <c r="I23">
+        <v>1.579</v>
+      </c>
+      <c r="J23">
+        <v>99.95</v>
+      </c>
+      <c r="K23">
+        <v>15.95</v>
+      </c>
+      <c r="L23">
+        <v>539.95000000000005</v>
+      </c>
+      <c r="M23">
+        <v>49.95</v>
+      </c>
+      <c r="N23">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O23">
+        <v>64.95</v>
+      </c>
+      <c r="P23">
+        <v>45.16</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA539C-A317-B243-BBD0-1386D951A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296CEF3F-5DB6-D342-BD58-681D080CC5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20580" yWindow="4020" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,6 +1674,56 @@
       </c>
       <c r="P23">
         <v>45.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B24">
+        <v>24.85</v>
+      </c>
+      <c r="C24">
+        <v>4.5</v>
+      </c>
+      <c r="D24">
+        <v>2.5</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24">
+        <v>6.2</v>
+      </c>
+      <c r="H24">
+        <v>1.8</v>
+      </c>
+      <c r="I24">
+        <v>1.589</v>
+      </c>
+      <c r="J24">
+        <v>89.95</v>
+      </c>
+      <c r="K24">
+        <v>11.95</v>
+      </c>
+      <c r="L24">
+        <v>589.95000000000005</v>
+      </c>
+      <c r="M24">
+        <v>49.95</v>
+      </c>
+      <c r="N24">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O24">
+        <v>74.95</v>
+      </c>
+      <c r="P24">
+        <v>45.27</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296CEF3F-5DB6-D342-BD58-681D080CC5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F044AD-7438-F44F-9449-04E84E64DC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="4020" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
+    <workbookView xWindow="23140" yWindow="4140" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="1" r:id="rId1"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,6 +1724,56 @@
       </c>
       <c r="P24">
         <v>45.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B25">
+        <v>25.27</v>
+      </c>
+      <c r="C25">
+        <v>4.5</v>
+      </c>
+      <c r="D25">
+        <v>2.5</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>4.5</v>
+      </c>
+      <c r="G25">
+        <v>6.2</v>
+      </c>
+      <c r="H25">
+        <v>1.8</v>
+      </c>
+      <c r="I25">
+        <v>1.863</v>
+      </c>
+      <c r="J25">
+        <v>89.95</v>
+      </c>
+      <c r="K25">
+        <v>9.9</v>
+      </c>
+      <c r="L25">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="M25">
+        <v>49.95</v>
+      </c>
+      <c r="N25">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O25">
+        <v>76.95</v>
+      </c>
+      <c r="P25">
+        <v>46.84</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F044AD-7438-F44F-9449-04E84E64DC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C2A107-6EC4-1B45-86B4-68DE2588EDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23140" yWindow="4140" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,6 +1774,56 @@
       </c>
       <c r="P25">
         <v>46.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B26">
+        <v>25.53</v>
+      </c>
+      <c r="C26">
+        <v>4.5</v>
+      </c>
+      <c r="D26">
+        <v>3.6</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>4.5</v>
+      </c>
+      <c r="G26">
+        <v>6.2</v>
+      </c>
+      <c r="H26">
+        <v>1.8</v>
+      </c>
+      <c r="I26">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="J26">
+        <v>99.95</v>
+      </c>
+      <c r="K26">
+        <v>12.95</v>
+      </c>
+      <c r="L26">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="M26">
+        <v>49.95</v>
+      </c>
+      <c r="N26">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O26">
+        <v>76.95</v>
+      </c>
+      <c r="P26">
+        <v>46.92</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C2A107-6EC4-1B45-86B4-68DE2588EDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DC0C7F-46A7-2C41-A8C9-507BCC779B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23140" yWindow="4140" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1824,6 +1824,106 @@
       </c>
       <c r="P26">
         <v>46.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B27">
+        <v>25.36</v>
+      </c>
+      <c r="C27">
+        <v>4.5</v>
+      </c>
+      <c r="D27">
+        <v>2.5</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27">
+        <v>6.2</v>
+      </c>
+      <c r="H27">
+        <v>1.8</v>
+      </c>
+      <c r="I27">
+        <v>1.599</v>
+      </c>
+      <c r="J27">
+        <v>79.95</v>
+      </c>
+      <c r="K27">
+        <v>11.95</v>
+      </c>
+      <c r="L27">
+        <v>549.9</v>
+      </c>
+      <c r="M27">
+        <v>49.95</v>
+      </c>
+      <c r="N27">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O27">
+        <v>64.95</v>
+      </c>
+      <c r="P27">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B28">
+        <v>26.17</v>
+      </c>
+      <c r="C28">
+        <v>4.5</v>
+      </c>
+      <c r="D28">
+        <v>2.5</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>4.5</v>
+      </c>
+      <c r="G28">
+        <v>6.2</v>
+      </c>
+      <c r="H28">
+        <v>1.8</v>
+      </c>
+      <c r="I28">
+        <v>1.897</v>
+      </c>
+      <c r="J28">
+        <v>119.95</v>
+      </c>
+      <c r="K28">
+        <v>11.95</v>
+      </c>
+      <c r="L28">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="M28">
+        <v>49.95</v>
+      </c>
+      <c r="N28">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O28">
+        <v>76.95</v>
+      </c>
+      <c r="P28">
+        <v>51.21</v>
       </c>
     </row>
   </sheetData>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Halim/git/prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DC0C7F-46A7-2C41-A8C9-507BCC779B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B52C75-0CB4-E940-AEA9-71590AEF2D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23140" yWindow="4140" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
+    <workbookView xWindow="24420" yWindow="2940" windowWidth="20380" windowHeight="17440" xr2:uid="{467E520F-A507-C645-AF43-7C8F87D202EE}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="1" r:id="rId1"/>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EADCD2-29C8-CC4D-96D3-61A0DB46784B}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1924,6 +1924,257 @@
       </c>
       <c r="P28">
         <v>51.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B29">
+        <v>26.34</v>
+      </c>
+      <c r="C29">
+        <v>4.5</v>
+      </c>
+      <c r="D29">
+        <v>3.6</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+      <c r="G29">
+        <v>6.2</v>
+      </c>
+      <c r="H29">
+        <v>1.8</v>
+      </c>
+      <c r="I29">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="J29">
+        <v>119.95</v>
+      </c>
+      <c r="K29">
+        <v>11.95</v>
+      </c>
+      <c r="L29">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="M29">
+        <v>45.75</v>
+      </c>
+      <c r="N29">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O29">
+        <v>76.95</v>
+      </c>
+      <c r="P29">
+        <v>51.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B30">
+        <v>26.3</v>
+      </c>
+      <c r="C30">
+        <v>4.5</v>
+      </c>
+      <c r="D30">
+        <v>2.5</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>4.5</v>
+      </c>
+      <c r="G30">
+        <v>6.2</v>
+      </c>
+      <c r="H30">
+        <v>1.8</v>
+      </c>
+      <c r="I30">
+        <v>1.599</v>
+      </c>
+      <c r="J30">
+        <v>99.95</v>
+      </c>
+      <c r="K30">
+        <v>10.95</v>
+      </c>
+      <c r="L30">
+        <v>629.95000000000005</v>
+      </c>
+      <c r="M30">
+        <v>49.95</v>
+      </c>
+      <c r="N30">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O30">
+        <v>59.95</v>
+      </c>
+      <c r="P30">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B31">
+        <v>26.52</v>
+      </c>
+      <c r="C31">
+        <v>4.5</v>
+      </c>
+      <c r="D31">
+        <v>3.6</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>4.5</v>
+      </c>
+      <c r="G31">
+        <v>6.2</v>
+      </c>
+      <c r="H31">
+        <v>1.8</v>
+      </c>
+      <c r="I31">
+        <v>1.905</v>
+      </c>
+      <c r="J31">
+        <v>89.95</v>
+      </c>
+      <c r="K31">
+        <v>10.95</v>
+      </c>
+      <c r="L31">
+        <v>629.95000000000005</v>
+      </c>
+      <c r="M31">
+        <v>54.95</v>
+      </c>
+      <c r="N31">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="O31">
+        <v>59.95</v>
+      </c>
+      <c r="P31">
+        <v>51.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B32">
+        <v>26.79</v>
+      </c>
+      <c r="C32">
+        <v>4.5</v>
+      </c>
+      <c r="D32">
+        <v>3.6</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>4.5</v>
+      </c>
+      <c r="G32">
+        <v>6.2</v>
+      </c>
+      <c r="H32">
+        <v>1.8</v>
+      </c>
+      <c r="I32">
+        <v>1.659</v>
+      </c>
+      <c r="J32">
+        <v>109.95</v>
+      </c>
+      <c r="K32">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L32">
+        <v>629.95000000000005</v>
+      </c>
+      <c r="M32">
+        <v>54.95</v>
+      </c>
+      <c r="N32">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="O32">
+        <f>184.95/2.5</f>
+        <v>73.97999999999999</v>
+      </c>
+      <c r="P32">
+        <v>52.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B33">
+        <v>27.48</v>
+      </c>
+      <c r="C33">
+        <v>3.5</v>
+      </c>
+      <c r="D33">
+        <v>2.5</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>4.5</v>
+      </c>
+      <c r="G33">
+        <v>6.2</v>
+      </c>
+      <c r="H33">
+        <v>1.8</v>
+      </c>
+      <c r="I33">
+        <v>1.71</v>
+      </c>
+      <c r="J33">
+        <v>89.95</v>
+      </c>
+      <c r="K33">
+        <v>9.5</v>
+      </c>
+      <c r="L33">
+        <v>594.95000000000005</v>
+      </c>
+      <c r="M33">
+        <v>54.95</v>
+      </c>
+      <c r="N33">
+        <v>169.95</v>
+      </c>
+      <c r="O33">
+        <v>80.95</v>
+      </c>
+      <c r="P33">
+        <v>53.29</v>
       </c>
     </row>
   </sheetData>
